--- a/Video-Frames/RoadMap.xlsx
+++ b/Video-Frames/RoadMap.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m.yousaf\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m.yousaf\eclipse-workspace\Video-Frames\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -342,73 +342,73 @@
   </cellStyleXfs>
   <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -416,36 +416,7 @@
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <font>
         <b/>
@@ -476,31 +447,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -789,8 +735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="I2:Z39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="V19" sqref="V19:W19"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -801,430 +747,432 @@
       </c>
     </row>
     <row r="3" spans="9:26" x14ac:dyDescent="0.25">
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
-      <c r="W3" s="3"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="13"/>
+      <c r="T3" s="13"/>
+      <c r="U3" s="13"/>
+      <c r="V3" s="13"/>
+      <c r="W3" s="14"/>
       <c r="Z3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="9:26" x14ac:dyDescent="0.25">
-      <c r="I4" s="4"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
-      <c r="U4" s="5"/>
-      <c r="V4" s="5"/>
-      <c r="W4" s="6"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="16"/>
+      <c r="R4" s="16"/>
+      <c r="S4" s="16"/>
+      <c r="T4" s="16"/>
+      <c r="U4" s="16"/>
+      <c r="V4" s="16"/>
+      <c r="W4" s="17"/>
       <c r="Z4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="9:26" x14ac:dyDescent="0.25">
-      <c r="I5" s="4"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
-      <c r="U5" s="5"/>
-      <c r="V5" s="5"/>
-      <c r="W5" s="6"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="16"/>
+      <c r="S5" s="16"/>
+      <c r="T5" s="16"/>
+      <c r="U5" s="16"/>
+      <c r="V5" s="16"/>
+      <c r="W5" s="17"/>
       <c r="Z5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="9:26" x14ac:dyDescent="0.25">
-      <c r="I6" s="4"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
-      <c r="U6" s="5"/>
-      <c r="V6" s="5"/>
-      <c r="W6" s="6"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="16"/>
+      <c r="R6" s="16"/>
+      <c r="S6" s="16"/>
+      <c r="T6" s="16"/>
+      <c r="U6" s="16"/>
+      <c r="V6" s="16"/>
+      <c r="W6" s="17"/>
     </row>
     <row r="7" spans="9:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I7" s="7"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="8"/>
-      <c r="S7" s="8"/>
-      <c r="T7" s="8"/>
-      <c r="U7" s="8"/>
-      <c r="V7" s="8"/>
-      <c r="W7" s="9"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="19"/>
+      <c r="U7" s="19"/>
+      <c r="V7" s="19"/>
+      <c r="W7" s="20"/>
     </row>
     <row r="8" spans="9:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I8" s="13" t="s">
+      <c r="I8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J8" s="14" t="s">
+      <c r="J8" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="15"/>
-      <c r="P8" s="15"/>
-      <c r="Q8" s="15"/>
-      <c r="R8" s="15"/>
-      <c r="S8" s="15"/>
-      <c r="T8" s="15"/>
-      <c r="U8" s="16"/>
-      <c r="V8" s="10" t="s">
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="24"/>
+      <c r="O8" s="24"/>
+      <c r="P8" s="24"/>
+      <c r="Q8" s="24"/>
+      <c r="R8" s="24"/>
+      <c r="S8" s="24"/>
+      <c r="T8" s="24"/>
+      <c r="U8" s="25"/>
+      <c r="V8" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="W8" s="11"/>
+      <c r="W8" s="22"/>
     </row>
     <row r="9" spans="9:26" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I9" s="17">
+      <c r="I9" s="2">
         <v>1</v>
       </c>
-      <c r="J9" s="18" t="s">
+      <c r="J9" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="18"/>
-      <c r="O9" s="18"/>
-      <c r="P9" s="18"/>
-      <c r="Q9" s="18"/>
-      <c r="R9" s="18"/>
-      <c r="S9" s="18"/>
-      <c r="T9" s="18"/>
-      <c r="U9" s="18"/>
-      <c r="V9" s="19" t="s">
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="W9" s="20"/>
+      <c r="W9" s="27"/>
     </row>
     <row r="10" spans="9:26" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I10" s="21"/>
-      <c r="J10" s="22">
+      <c r="I10" s="4"/>
+      <c r="J10" s="5">
         <v>1.1000000000000001</v>
       </c>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="22"/>
-      <c r="N10" s="22"/>
-      <c r="O10" s="22"/>
-      <c r="P10" s="22"/>
-      <c r="Q10" s="22"/>
-      <c r="R10" s="22"/>
-      <c r="S10" s="22"/>
-      <c r="T10" s="22"/>
-      <c r="U10" s="22"/>
-      <c r="V10" s="12"/>
-      <c r="W10" s="23"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="8"/>
+      <c r="W10" s="9"/>
     </row>
     <row r="11" spans="9:26" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I11" s="21"/>
-      <c r="J11" s="22">
+      <c r="I11" s="4"/>
+      <c r="J11" s="5">
         <v>1.2</v>
       </c>
-      <c r="K11" s="22"/>
-      <c r="L11" s="22"/>
-      <c r="M11" s="22"/>
-      <c r="N11" s="22"/>
-      <c r="O11" s="22"/>
-      <c r="P11" s="22"/>
-      <c r="Q11" s="22"/>
-      <c r="R11" s="22"/>
-      <c r="S11" s="22"/>
-      <c r="T11" s="22"/>
-      <c r="U11" s="22"/>
-      <c r="V11" s="12"/>
-      <c r="W11" s="23"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="8"/>
+      <c r="W11" s="9"/>
     </row>
     <row r="12" spans="9:26" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I12" s="21"/>
-      <c r="J12" s="22">
+      <c r="I12" s="4"/>
+      <c r="J12" s="5">
         <v>1.3</v>
       </c>
-      <c r="K12" s="22"/>
-      <c r="L12" s="22"/>
-      <c r="M12" s="22"/>
-      <c r="N12" s="22"/>
-      <c r="O12" s="22"/>
-      <c r="P12" s="22"/>
-      <c r="Q12" s="22"/>
-      <c r="R12" s="22"/>
-      <c r="S12" s="22"/>
-      <c r="T12" s="22"/>
-      <c r="U12" s="22"/>
-      <c r="V12" s="12"/>
-      <c r="W12" s="23"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="8"/>
+      <c r="W12" s="9"/>
     </row>
     <row r="13" spans="9:26" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I13" s="21">
+      <c r="I13" s="4">
         <v>2</v>
       </c>
-      <c r="J13" s="22" t="s">
+      <c r="J13" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="K13" s="22"/>
-      <c r="L13" s="22"/>
-      <c r="M13" s="22"/>
-      <c r="N13" s="22"/>
-      <c r="O13" s="22"/>
-      <c r="P13" s="22"/>
-      <c r="Q13" s="22"/>
-      <c r="R13" s="22"/>
-      <c r="S13" s="22"/>
-      <c r="T13" s="22"/>
-      <c r="U13" s="22"/>
-      <c r="V13" s="12" t="s">
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="W13" s="23"/>
+      <c r="W13" s="9"/>
     </row>
     <row r="14" spans="9:26" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I14" s="21"/>
-      <c r="J14" s="22">
+      <c r="I14" s="4"/>
+      <c r="J14" s="5">
         <v>2.1</v>
       </c>
-      <c r="K14" s="22" t="s">
+      <c r="K14" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="L14" s="22"/>
-      <c r="M14" s="22"/>
-      <c r="N14" s="22"/>
-      <c r="O14" s="22"/>
-      <c r="P14" s="22"/>
-      <c r="Q14" s="22"/>
-      <c r="R14" s="22"/>
-      <c r="S14" s="22"/>
-      <c r="T14" s="22"/>
-      <c r="U14" s="22"/>
-      <c r="V14" s="12"/>
-      <c r="W14" s="23"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="8"/>
+      <c r="W14" s="9"/>
     </row>
     <row r="15" spans="9:26" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I15" s="21"/>
-      <c r="J15" s="22">
+      <c r="I15" s="4"/>
+      <c r="J15" s="5">
         <v>2.2000000000000002</v>
       </c>
-      <c r="K15" s="22" t="s">
+      <c r="K15" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="L15" s="22"/>
-      <c r="M15" s="22"/>
-      <c r="N15" s="22"/>
-      <c r="O15" s="22"/>
-      <c r="P15" s="22"/>
-      <c r="Q15" s="22"/>
-      <c r="R15" s="22"/>
-      <c r="S15" s="22"/>
-      <c r="T15" s="22"/>
-      <c r="U15" s="22"/>
-      <c r="V15" s="12"/>
-      <c r="W15" s="23"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="8"/>
+      <c r="W15" s="9"/>
     </row>
     <row r="16" spans="9:26" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I16" s="21"/>
-      <c r="J16" s="22">
+      <c r="I16" s="4"/>
+      <c r="J16" s="5">
         <v>2.2999999999999998</v>
       </c>
-      <c r="K16" s="22" t="s">
+      <c r="K16" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="L16" s="22"/>
-      <c r="M16" s="22"/>
-      <c r="N16" s="22"/>
-      <c r="O16" s="22"/>
-      <c r="P16" s="22"/>
-      <c r="Q16" s="22"/>
-      <c r="R16" s="22"/>
-      <c r="S16" s="22"/>
-      <c r="T16" s="22"/>
-      <c r="U16" s="22"/>
-      <c r="V16" s="12"/>
-      <c r="W16" s="23"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="8"/>
+      <c r="W16" s="9"/>
     </row>
     <row r="17" spans="9:23" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I17" s="21">
+      <c r="I17" s="4">
         <v>3</v>
       </c>
-      <c r="J17" s="22" t="s">
+      <c r="J17" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="K17" s="22"/>
-      <c r="L17" s="22"/>
-      <c r="M17" s="22"/>
-      <c r="N17" s="22"/>
-      <c r="O17" s="22"/>
-      <c r="P17" s="22"/>
-      <c r="Q17" s="22"/>
-      <c r="R17" s="22"/>
-      <c r="S17" s="22"/>
-      <c r="T17" s="22"/>
-      <c r="U17" s="22"/>
-      <c r="V17" s="12" t="s">
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="W17" s="23"/>
+      <c r="W17" s="9"/>
     </row>
     <row r="18" spans="9:23" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I18" s="21"/>
-      <c r="J18" s="22">
+      <c r="I18" s="4"/>
+      <c r="J18" s="5">
         <v>3.1</v>
       </c>
-      <c r="K18" s="22" t="s">
+      <c r="K18" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="L18" s="22"/>
-      <c r="M18" s="22"/>
-      <c r="N18" s="22"/>
-      <c r="O18" s="22"/>
-      <c r="P18" s="22"/>
-      <c r="Q18" s="22"/>
-      <c r="R18" s="22"/>
-      <c r="S18" s="22"/>
-      <c r="T18" s="22"/>
-      <c r="U18" s="22"/>
-      <c r="V18" s="12"/>
-      <c r="W18" s="23"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="8"/>
+      <c r="W18" s="9"/>
     </row>
     <row r="19" spans="9:23" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I19" s="21"/>
-      <c r="J19" s="22">
+      <c r="I19" s="4"/>
+      <c r="J19" s="5">
         <v>3.2</v>
       </c>
-      <c r="K19" s="22"/>
-      <c r="L19" s="22"/>
-      <c r="M19" s="22"/>
-      <c r="N19" s="22"/>
-      <c r="O19" s="22"/>
-      <c r="P19" s="22"/>
-      <c r="Q19" s="22"/>
-      <c r="R19" s="22"/>
-      <c r="S19" s="22"/>
-      <c r="T19" s="22"/>
-      <c r="U19" s="22"/>
-      <c r="V19" s="12"/>
-      <c r="W19" s="23"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="5"/>
+      <c r="U19" s="5"/>
+      <c r="V19" s="8"/>
+      <c r="W19" s="9"/>
     </row>
     <row r="20" spans="9:23" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I20" s="21">
+      <c r="I20" s="4">
         <v>4</v>
       </c>
-      <c r="J20" s="22" t="s">
+      <c r="J20" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K20" s="22"/>
-      <c r="L20" s="22"/>
-      <c r="M20" s="22"/>
-      <c r="N20" s="22"/>
-      <c r="O20" s="22"/>
-      <c r="P20" s="22"/>
-      <c r="Q20" s="22"/>
-      <c r="R20" s="22"/>
-      <c r="S20" s="22"/>
-      <c r="T20" s="22"/>
-      <c r="U20" s="22"/>
-      <c r="V20" s="12" t="s">
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="5"/>
+      <c r="U20" s="5"/>
+      <c r="V20" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="W20" s="23"/>
+      <c r="W20" s="9"/>
     </row>
     <row r="21" spans="9:23" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I21" s="21"/>
-      <c r="J21" s="22">
+      <c r="I21" s="4"/>
+      <c r="J21" s="5">
         <v>4.0999999999999996</v>
       </c>
-      <c r="K21" s="22"/>
-      <c r="L21" s="22"/>
-      <c r="M21" s="22"/>
-      <c r="N21" s="22"/>
-      <c r="O21" s="22"/>
-      <c r="P21" s="22"/>
-      <c r="Q21" s="22"/>
-      <c r="R21" s="22"/>
-      <c r="S21" s="22"/>
-      <c r="T21" s="22"/>
-      <c r="U21" s="22"/>
-      <c r="V21" s="12"/>
-      <c r="W21" s="23"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="5"/>
+      <c r="U21" s="5"/>
+      <c r="V21" s="8"/>
+      <c r="W21" s="9"/>
     </row>
     <row r="22" spans="9:23" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I22" s="21"/>
-      <c r="J22" s="22">
+      <c r="I22" s="4"/>
+      <c r="J22" s="5">
         <v>4.2</v>
       </c>
-      <c r="K22" s="22"/>
-      <c r="L22" s="22"/>
-      <c r="M22" s="22"/>
-      <c r="N22" s="22"/>
-      <c r="O22" s="22"/>
-      <c r="P22" s="22"/>
-      <c r="Q22" s="22"/>
-      <c r="R22" s="22"/>
-      <c r="S22" s="22"/>
-      <c r="T22" s="22"/>
-      <c r="U22" s="22"/>
-      <c r="V22" s="12"/>
-      <c r="W22" s="23"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="5"/>
+      <c r="T22" s="5"/>
+      <c r="U22" s="5"/>
+      <c r="V22" s="8"/>
+      <c r="W22" s="9"/>
     </row>
     <row r="23" spans="9:23" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I23" s="24"/>
-      <c r="J23" s="25"/>
-      <c r="K23" s="25"/>
-      <c r="L23" s="25"/>
-      <c r="M23" s="25"/>
-      <c r="N23" s="25"/>
-      <c r="O23" s="25"/>
-      <c r="P23" s="25"/>
-      <c r="Q23" s="25"/>
-      <c r="R23" s="25"/>
-      <c r="S23" s="25"/>
-      <c r="T23" s="25"/>
-      <c r="U23" s="25"/>
-      <c r="V23" s="26"/>
-      <c r="W23" s="27"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="7">
+        <v>4.3</v>
+      </c>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="7"/>
+      <c r="R23" s="7"/>
+      <c r="S23" s="7"/>
+      <c r="T23" s="7"/>
+      <c r="U23" s="7"/>
+      <c r="V23" s="10"/>
+      <c r="W23" s="11"/>
     </row>
     <row r="24" spans="9:23" ht="29.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="25" spans="9:23" ht="29.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1244,11 +1192,12 @@
     <row r="39" ht="29.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="V18:W18"/>
-    <mergeCell ref="V19:W19"/>
-    <mergeCell ref="V20:W20"/>
-    <mergeCell ref="V21:W21"/>
-    <mergeCell ref="V22:W22"/>
+    <mergeCell ref="V11:W11"/>
+    <mergeCell ref="I3:W7"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="J8:U8"/>
+    <mergeCell ref="V9:W9"/>
+    <mergeCell ref="V10:W10"/>
     <mergeCell ref="V23:W23"/>
     <mergeCell ref="V12:W12"/>
     <mergeCell ref="V13:W13"/>
@@ -1256,24 +1205,23 @@
     <mergeCell ref="V15:W15"/>
     <mergeCell ref="V16:W16"/>
     <mergeCell ref="V17:W17"/>
-    <mergeCell ref="I3:W7"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="J8:U8"/>
-    <mergeCell ref="V9:W9"/>
-    <mergeCell ref="V10:W10"/>
-    <mergeCell ref="V11:W11"/>
+    <mergeCell ref="V18:W18"/>
+    <mergeCell ref="V19:W19"/>
+    <mergeCell ref="V20:W20"/>
+    <mergeCell ref="V21:W21"/>
+    <mergeCell ref="V22:W22"/>
   </mergeCells>
   <conditionalFormatting sqref="V1:W1048576">
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>$Z$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>$Z$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>$Z$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>$Z$5</formula>
     </cfRule>
   </conditionalFormatting>
